--- a/contratos/contratos-1-2012.xlsx
+++ b/contratos/contratos-1-2012.xlsx
@@ -364,7 +364,7 @@
     <t>FIOROTTO ALBERTO M Y REY CESAR A S.R.L.</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>SAUL ALBERTO SALOMON</t>
@@ -400,10 +400,10 @@
     <t>IGLESIAS JOSE FABIAN</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
-  </si>
-  <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
+  </si>
+  <si>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>COOPERATIVA DE TRABAJO LUCHANDO POR NUESTROS HIJOS LTDA.</t>
@@ -433,7 +433,7 @@
     <t>GRUPO MARSO S.R.L.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>IZAGUIRRE GASTON ARIEL</t>
@@ -454,7 +454,7 @@
     <t>FERNANDEZ MARIELA VIVIANA</t>
   </si>
   <si>
-    <t>GIMENEZ, ROBERTO ADRIAN</t>
+    <t>GIMENEZ. ROBERTO ADRIAN</t>
   </si>
   <si>
     <t>MUÑOZ LUCIANO GASTON</t>
@@ -679,244 +679,244 @@
     <t>37</t>
   </si>
   <si>
-    <t>1.776,00</t>
-  </si>
-  <si>
-    <t>58.000,00</t>
-  </si>
-  <si>
-    <t>44.420,85</t>
-  </si>
-  <si>
-    <t>66.941,77</t>
-  </si>
-  <si>
-    <t>20.054,40</t>
-  </si>
-  <si>
-    <t>7.141,25</t>
-  </si>
-  <si>
-    <t>12.940,56</t>
-  </si>
-  <si>
-    <t>2.010,00</t>
-  </si>
-  <si>
-    <t>6.615,41</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>1.806,00</t>
-  </si>
-  <si>
-    <t>7,10</t>
-  </si>
-  <si>
-    <t>41,00</t>
-  </si>
-  <si>
-    <t>25.871,01</t>
-  </si>
-  <si>
-    <t>520,00</t>
-  </si>
-  <si>
-    <t>5.080,00</t>
-  </si>
-  <si>
-    <t>9.216,84</t>
-  </si>
-  <si>
-    <t>86,00</t>
-  </si>
-  <si>
-    <t>2.317,75</t>
-  </si>
-  <si>
-    <t>10.403,70</t>
-  </si>
-  <si>
-    <t>999,14</t>
-  </si>
-  <si>
-    <t>128,94</t>
-  </si>
-  <si>
-    <t>18,62</t>
-  </si>
-  <si>
-    <t>78,48</t>
-  </si>
-  <si>
-    <t>444,00</t>
-  </si>
-  <si>
-    <t>44.975,00</t>
-  </si>
-  <si>
-    <t>1.900,00</t>
-  </si>
-  <si>
-    <t>3.280,00</t>
-  </si>
-  <si>
-    <t>37,91</t>
-  </si>
-  <si>
-    <t>1.028,50</t>
-  </si>
-  <si>
-    <t>405,00</t>
-  </si>
-  <si>
-    <t>2.094,94</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>50.200,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>265.740,00</t>
-  </si>
-  <si>
-    <t>25.759,02</t>
-  </si>
-  <si>
-    <t>248.840,09</t>
-  </si>
-  <si>
-    <t>6.800,00</t>
-  </si>
-  <si>
-    <t>79,02</t>
-  </si>
-  <si>
-    <t>12,00</t>
-  </si>
-  <si>
-    <t>143,80</t>
-  </si>
-  <si>
-    <t>15,00</t>
-  </si>
-  <si>
-    <t>4.125,90</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>289,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>11.250,00</t>
-  </si>
-  <si>
-    <t>1.912,06</t>
-  </si>
-  <si>
-    <t>76.295,52</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>2.585,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>9.120,00</t>
-  </si>
-  <si>
-    <t>357,00</t>
-  </si>
-  <si>
-    <t>726,00</t>
-  </si>
-  <si>
-    <t>57,83</t>
-  </si>
-  <si>
-    <t>1.287,00</t>
-  </si>
-  <si>
-    <t>1.660,00</t>
-  </si>
-  <si>
-    <t>29,20</t>
-  </si>
-  <si>
-    <t>985,00</t>
-  </si>
-  <si>
-    <t>1.773,00</t>
-  </si>
-  <si>
-    <t>773,51</t>
-  </si>
-  <si>
-    <t>432,00</t>
-  </si>
-  <si>
-    <t>361,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>40,88</t>
-  </si>
-  <si>
-    <t>217,53</t>
-  </si>
-  <si>
-    <t>20,12</t>
-  </si>
-  <si>
-    <t>190,71</t>
-  </si>
-  <si>
-    <t>44.291,09</t>
-  </si>
-  <si>
-    <t>298.517,29</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>22.000,00</t>
-  </si>
-  <si>
-    <t>2.210,00</t>
-  </si>
-  <si>
-    <t>168,00</t>
+    <t>1776.00</t>
+  </si>
+  <si>
+    <t>58000.00</t>
+  </si>
+  <si>
+    <t>44420.85</t>
+  </si>
+  <si>
+    <t>66941.77</t>
+  </si>
+  <si>
+    <t>20054.40</t>
+  </si>
+  <si>
+    <t>7141.25</t>
+  </si>
+  <si>
+    <t>12940.56</t>
+  </si>
+  <si>
+    <t>2010.00</t>
+  </si>
+  <si>
+    <t>6615.41</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>1806.00</t>
+  </si>
+  <si>
+    <t>7.10</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>25871.01</t>
+  </si>
+  <si>
+    <t>520.00</t>
+  </si>
+  <si>
+    <t>5080.00</t>
+  </si>
+  <si>
+    <t>9216.84</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>2317.75</t>
+  </si>
+  <si>
+    <t>10403.70</t>
+  </si>
+  <si>
+    <t>999.14</t>
+  </si>
+  <si>
+    <t>128.94</t>
+  </si>
+  <si>
+    <t>18.62</t>
+  </si>
+  <si>
+    <t>78.48</t>
+  </si>
+  <si>
+    <t>444.00</t>
+  </si>
+  <si>
+    <t>44975.00</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>3280.00</t>
+  </si>
+  <si>
+    <t>37.91</t>
+  </si>
+  <si>
+    <t>1028.50</t>
+  </si>
+  <si>
+    <t>405.00</t>
+  </si>
+  <si>
+    <t>2094.94</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>50200.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>265740.00</t>
+  </si>
+  <si>
+    <t>25759.02</t>
+  </si>
+  <si>
+    <t>248840.09</t>
+  </si>
+  <si>
+    <t>6800.00</t>
+  </si>
+  <si>
+    <t>79.02</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>143.80</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>4125.90</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>289.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>11250.00</t>
+  </si>
+  <si>
+    <t>1912.06</t>
+  </si>
+  <si>
+    <t>76295.52</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>2585.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>9120.00</t>
+  </si>
+  <si>
+    <t>357.00</t>
+  </si>
+  <si>
+    <t>726.00</t>
+  </si>
+  <si>
+    <t>57.83</t>
+  </si>
+  <si>
+    <t>1287.00</t>
+  </si>
+  <si>
+    <t>1660.00</t>
+  </si>
+  <si>
+    <t>29.20</t>
+  </si>
+  <si>
+    <t>985.00</t>
+  </si>
+  <si>
+    <t>1773.00</t>
+  </si>
+  <si>
+    <t>773.51</t>
+  </si>
+  <si>
+    <t>432.00</t>
+  </si>
+  <si>
+    <t>361.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>40.88</t>
+  </si>
+  <si>
+    <t>217.53</t>
+  </si>
+  <si>
+    <t>20.12</t>
+  </si>
+  <si>
+    <t>190.71</t>
+  </si>
+  <si>
+    <t>44291.09</t>
+  </si>
+  <si>
+    <t>298517.29</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>2210.00</t>
+  </si>
+  <si>
+    <t>168.00</t>
   </si>
 </sst>
 </file>
